--- a/Arif 0723/Arif 0723.xlsx
+++ b/Arif 0723/Arif 0723.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scraping\Don Osterloh\Scraping data\Arif 0723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7241EC6-2091-4FE7-B5FE-E653FFEC007E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FC971B-AC03-4F5C-8098-BF01D6F6B26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +233,6 @@
       <u/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -265,8 +258,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,22 +373,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,20 +391,50 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -658,13 +714,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="74" style="1" customWidth="1"/>
     <col min="3" max="3" width="93.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="91.140625" style="1" customWidth="1"/>
@@ -695,263 +751,263 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" s="11" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" s="11" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" s="11" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" s="20" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" s="20" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" s="20" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" s="11" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" s="11" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" s="11" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="3:3" s="11" customFormat="1" ht="36.75" customHeight="1">
-      <c r="C17" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="3:3" s="7" customFormat="1" ht="36.75" customHeight="1">
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="3:3" ht="36.75" customHeight="1"/>
   </sheetData>
